--- a/xlsxmaps/level_0026.xlsx
+++ b/xlsxmaps/level_0026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FE0920-CB5A-4619-A5D8-710B91EBDB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601DD116-C615-4FFD-A2BF-35FA41F8E21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="层" sheetId="25" r:id="rId1"/>
@@ -1275,7 +1275,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
       <c r="A1" s="2">
-        <v>12018000</v>
+        <v>12000018</v>
       </c>
       <c r="B1" s="2">
         <v>10000000</v>
@@ -1290,7 +1290,7 @@
         <v>10000000</v>
       </c>
       <c r="F1" s="2">
-        <v>12018000</v>
+        <v>12000018</v>
       </c>
       <c r="G1" s="2">
         <v>0</v>
@@ -1496,7 +1496,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="2">
-        <v>12018000</v>
+        <v>12000018</v>
       </c>
       <c r="B2" s="2">
         <v>10000000</v>
@@ -1546,7 +1546,7 @@
         <v>10000000</v>
       </c>
       <c r="E2" s="2">
-        <v>12018000</v>
+        <v>12000018</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -1728,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE4A378-7C5E-4311-8D91-2C725EC5631C}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>12018000</v>
+        <v>12000018</v>
       </c>
       <c r="C2" s="2">
         <v>10000000</v>
@@ -1779,7 +1779,7 @@
         <v>10000000</v>
       </c>
       <c r="E2" s="2">
-        <v>12018000</v>
+        <v>12000018</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -2893,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CED9F9-4511-48B0-BE9D-CD922E4605EF}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
